--- a/biology/Zoologie/Diplognathodus/Diplognathodus.xlsx
+++ b/biology/Zoologie/Diplognathodus/Diplognathodus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Idiognathoides est un genre de conodontes du Carbonifère.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>†Diplognathodus coloradoensis
 †Diplognathodus edentulus
@@ -544,7 +558,9 @@
           <t>Utilisation en stratigraphie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La base du Moscovien, le second étage du Pennsylvanien (Carbonifère supérieur), est proche des premières apparitions des conodontes Declinognathodus donetzianus et Idiognathoides postsulcatus. 
 Une proposition d'utiliser la première apparition du conodonte Diplognathodus ellesmerensis existe, mais puisque cette espèce est rare et que  son évolution est relativement mal connue, elle n'a pas été acceptée pour le moment. 
